--- a/data/trans_camb/P25_7-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_7-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>6,48</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,85</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,19</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,71</t>
+          <t>-6,18; 2,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,5</t>
+          <t>-1,91; 8,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,28</t>
+          <t>-3,33; 6,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 0,53</t>
+          <t>-2,71; 7,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 1,7</t>
+          <t>-7,65; 1,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 9,04</t>
+          <t>-9,06; 0,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 0,95</t>
+          <t>-8,3; 2,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 3,38</t>
+          <t>-5,61; 5,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,01</t>
+          <t>1,0; 11,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 8,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 0,58</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 3,81</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 4,65</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 7,72</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 3,31</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>-9,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,71%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>-12,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>-11,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,46%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-10,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 18,55</t>
+          <t>-29,78; 18,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 54,63</t>
+          <t>-9,39; 50,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,4; 79,77</t>
+          <t>-15,51; 43,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 1,77</t>
+          <t>-12,2; 43,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 5,23</t>
+          <t>-27,33; 6,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 28,03</t>
+          <t>-23,94; 2,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 3,42</t>
+          <t>-21,57; 6,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 13,64</t>
+          <t>-14,93; 18,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 36,58</t>
+          <t>2,5; 35,56</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 22,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-22,69; 2,46</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-12,06; 15,16</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 18,59</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 30,22</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-10,97; 10,85</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,14</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 5,02</t>
+          <t>-3,74; 6,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 8,14</t>
+          <t>-1,98; 8,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 14,59</t>
+          <t>2,67; 14,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 2,62</t>
+          <t>-6,93; 7,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 7,69</t>
+          <t>-8,81; 7,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 15,74</t>
+          <t>-8,97; 3,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,53</t>
+          <t>-4,42; 6,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,08</t>
+          <t>-0,51; 12,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 12,29</t>
+          <t>-6,38; 10,23</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 10,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 3,36</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 6,98</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 11,51</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 5,68</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 6,15</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>-1,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-3,49%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,84%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>29,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 34,05</t>
+          <t>-19,3; 45,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 55,16</t>
+          <t>-9,41; 65,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 92,3</t>
+          <t>12,83; 107,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 9,23</t>
+          <t>-24,47; 35,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 28,43</t>
+          <t>-27,99; 33,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 53,02</t>
+          <t>-26,08; 11,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 10,72</t>
+          <t>-13,03; 23,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 27,79</t>
+          <t>-1,5; 43,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 54,22</t>
+          <t>-16,37; 30,52</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-21,93; 30,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-18,18; 15,36</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 31,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8,86; 53,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-16,28; 19,32</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-17,71; 22,27</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>10,65</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-9,1</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-6,49</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,22</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 12,22</t>
+          <t>-6,4; 11,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 18,9</t>
+          <t>-3,01; 21,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-1,44; 29,49</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-20,64; 3,16</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 7,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-17,12; 4,72</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,76; 8,64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; 4,58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-12,15; 4,55</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-7,52; 9,14</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 5,46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; 10,92</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 12,41</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>63,52%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-21,08%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-15,8%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-19,49%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-10,8%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-7,4%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 109,9</t>
+          <t>-30,75; 97,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 157,97</t>
+          <t>-16,9; 182,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-12,45; 235,33</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-40,87; 8,69</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 19,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-36,44; 14,2</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-27,91; 24,34</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-44,07; 13,98</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-34,68; 18,83</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-22,21; 37,11</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-28,75; 22,99</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-17,67; 43,03</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-23,66; 50,09</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,79</t>
+          <t>-3,39; 3,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 7,02</t>
+          <t>0,29; 7,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,35</t>
+          <t>1,78; 9,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -0,74</t>
+          <t>-4,56; 3,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,94</t>
+          <t>-6,73; 1,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 8,4</t>
+          <t>-7,22; -0,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,3</t>
+          <t>-5,15; 2,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,25</t>
+          <t>-2,61; 5,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,67</t>
+          <t>1,28; 9,66</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 6,68</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 0,25</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 3,96</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 6,19</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 5,53</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 3,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,81%</t>
+          <t>-3,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-7,57%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 17,58</t>
+          <t>-17,5; 21,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 43,66</t>
+          <t>1,12; 45,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,93; 70,81</t>
+          <t>8,92; 62,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -2,19</t>
+          <t>-18,35; 18,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 5,79</t>
+          <t>-24,54; 6,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 25,46</t>
+          <t>-19,86; -0,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 1,23</t>
+          <t>-14,07; 7,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 13,19</t>
+          <t>-7,25; 16,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,8; 35,1</t>
+          <t>3,42; 28,44</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-5,69; 18,47</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-16,29; 1,11</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 15,97</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 25,05</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 19,86</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; 10,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
